--- a/biology/Botanique/Herbarium_des_Remparts/Herbarium_des_Remparts.xlsx
+++ b/biology/Botanique/Herbarium_des_Remparts/Herbarium_des_Remparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Herbarium des Remparts est un jardin associatif ouvert au public, situé à Saint-Valery-sur-Somme sur la Côte picarde, dans le département de la Somme.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis le XVIe siècle, les religieuses de l’hôpital de Saint-Valery entretenaient un jardin dont le produit servait à l’alimentation des malades.
 Ce jardin fut abandonné lorsque les religieuses quittèrent l’hôpital en 1964.
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans la ville haute, près des remparts, enclos de murs de galets et de silex, l’Herbarium proprement dit a une superficie de 1 700 m2. Il rassemble plus de mille espèces étiquetées. Le jardin est géré selon les normes du développement durable, sans engrais ni pesticides. 
 Les parcelles se distribuent en étoile à partir d’un vieux pommier. De petits biotopes ont été créés :
@@ -571,9 +587,44 @@
 le sureau lacinié.
 Et des plantes vivaces et annuelles, fleurs de rocaille...
 Des expositions temporaires sont organisées régulièrement dans la serre attenante au jardin, dans des thèmes liés à l'environnement.
-Le Fruticetum
-En 2015, au pied des remparts, adjacent au jardin, a été aménagé un fruticetum ; autrement dit, ici un verger, avec sa collection de pommiers, poiriers, cerisiers, vigne, tilleul, cyprès, rosiers, joncs... 
-Cet espace est ouvert aux pensionnaires de la maison de retraite située juste en face[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Herbarium_des_Remparts</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herbarium_des_Remparts</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le Fruticetum</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, au pied des remparts, adjacent au jardin, a été aménagé un fruticetum ; autrement dit, ici un verger, avec sa collection de pommiers, poiriers, cerisiers, vigne, tilleul, cyprès, rosiers, joncs... 
+Cet espace est ouvert aux pensionnaires de la maison de retraite située juste en face.
 </t>
         </is>
       </c>
